--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>startDate</t>
   </si>
@@ -445,7 +445,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G7" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G8" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -654,13 +654,28 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="5">
+        <v>45632.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45634.0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>startDate</t>
   </si>
@@ -692,13 +692,27 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="5">
+        <v>45629.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45632.0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="G9" s="8">
+        <v>17.0</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>CAWI</t>
+  </si>
+  <si>
+    <t>IPSOS</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G8" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G11" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -711,7 +714,8 @@
         <v>48.9</v>
       </c>
       <c r="G9" s="8">
-        <v>17.0</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -729,13 +733,28 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="5">
+        <v>45643.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45644.0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -752,13 +771,28 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="5">
+        <v>45646.0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45648.0</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>56.9</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -809,13 +809,27 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="5">
+        <v>45664.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45666.0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>38.7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>13.4</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -832,13 +846,27 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="5">
+        <v>45667.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45669.0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5.2</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -883,13 +883,27 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="5">
+        <v>45671.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45673.0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>29.0</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -448,7 +448,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G11" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -828,6 +828,7 @@
         <v>47.9</v>
       </c>
       <c r="G12" s="8">
+        <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
       <c r="H12" s="9"/>
@@ -865,6 +866,7 @@
         <v>50.3</v>
       </c>
       <c r="G13" s="8">
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="H13" s="9"/>
@@ -902,7 +904,8 @@
         <v>42.0</v>
       </c>
       <c r="G14" s="8">
-        <v>29.0</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -920,13 +923,28 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="5">
+        <v>45673.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45676.0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>14.3</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>IPSOS</t>
+  </si>
+  <si>
+    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -132,6 +135,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -139,9 +145,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -448,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G16" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -961,13 +964,28 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="F16" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -984,13 +1002,13 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1007,13 +1025,13 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1030,13 +1048,13 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1053,13 +1071,13 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1076,13 +1094,13 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1099,13 +1117,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1122,13 +1140,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1145,13 +1163,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1168,13 +1186,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1191,13 +1209,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1214,13 +1232,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1237,13 +1255,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1260,13 +1278,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1283,13 +1301,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1306,13 +1324,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1329,13 +1347,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1352,13 +1370,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1375,13 +1393,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1398,13 +1416,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1421,13 +1439,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1444,13 +1462,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1467,13 +1485,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1490,13 +1508,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1513,13 +1531,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1536,13 +1554,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1559,13 +1577,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1582,13 +1600,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1605,13 +1623,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1628,13 +1646,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1651,13 +1669,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1674,13 +1692,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1697,13 +1715,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1720,13 +1738,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1743,13 +1761,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1766,13 +1784,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1789,13 +1807,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1812,13 +1830,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1835,13 +1853,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1858,13 +1876,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1881,13 +1899,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1904,13 +1922,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1927,13 +1945,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1950,13 +1968,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -1973,13 +1991,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -1996,13 +2014,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2019,13 +2037,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2042,13 +2060,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2065,13 +2083,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2088,13 +2106,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2111,13 +2129,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2134,13 +2152,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2157,13 +2175,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2180,13 +2198,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2203,13 +2221,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2226,13 +2244,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2249,13 +2267,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2272,13 +2290,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="13"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2295,13 +2313,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2318,13 +2336,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2341,13 +2359,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2364,13 +2382,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2387,13 +2405,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2410,13 +2428,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2433,13 +2451,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2456,13 +2474,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -2479,13 +2497,13 @@
       <c r="U81" s="9"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -2502,13 +2520,13 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -2525,13 +2543,13 @@
       <c r="U83" s="9"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -2548,13 +2566,13 @@
       <c r="U84" s="9"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -2571,13 +2589,13 @@
       <c r="U85" s="9"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="13"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -2594,13 +2612,13 @@
       <c r="U86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -2617,13 +2635,13 @@
       <c r="U87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -2640,13 +2658,13 @@
       <c r="U88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="13"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -2663,13 +2681,13 @@
       <c r="U89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -2686,13 +2704,13 @@
       <c r="U90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -2709,13 +2727,13 @@
       <c r="U91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -2732,13 +2750,13 @@
       <c r="U92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -2755,13 +2773,13 @@
       <c r="U93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -2778,13 +2796,13 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="13"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -2801,13 +2819,13 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -2824,13 +2842,13 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -2847,13 +2865,13 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="10"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -2870,13 +2888,13 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -2893,13 +2911,13 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -2916,13 +2934,13 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="13"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -2939,13 +2957,13 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>IPSOS</t>
-  </si>
-  <si>
-    <t>OGB</t>
   </si>
 </sst>
 </file>
@@ -135,9 +132,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -145,6 +139,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -451,7 +448,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G16" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -965,26 +962,25 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="5">
-        <v>45681.0</v>
+        <v>45677.0</v>
       </c>
       <c r="B16" s="5">
         <v>45681.0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7">
-        <v>50.6</v>
+        <v>35.2</v>
       </c>
       <c r="F16" s="7">
-        <v>49.4</v>
+        <v>52.4</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G16" s="8">
+        <v>12.4</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1002,13 +998,27 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="5">
+        <v>45681.0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45683.0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>49.6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10.5</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1025,13 +1035,13 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1048,13 +1058,13 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1071,13 +1081,13 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1094,13 +1104,13 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1117,13 +1127,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1140,13 +1150,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1163,13 +1173,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1186,13 +1196,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1209,13 +1219,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1232,13 +1242,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1255,13 +1265,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1278,13 +1288,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1301,13 +1311,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1324,13 +1334,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1347,13 +1357,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1370,13 +1380,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1393,13 +1403,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1416,13 +1426,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1439,13 +1449,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1462,13 +1472,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1485,13 +1495,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1508,13 +1518,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1531,13 +1541,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1554,13 +1564,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1577,13 +1587,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1600,13 +1610,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1623,13 +1633,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1646,13 +1656,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1669,13 +1679,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1692,13 +1702,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1715,13 +1725,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1738,13 +1748,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="10"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1761,13 +1771,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1784,13 +1794,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1807,13 +1817,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1830,13 +1840,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1853,13 +1863,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1876,13 +1886,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="10"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1899,13 +1909,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="10"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1922,13 +1932,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="10"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1945,13 +1955,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="10"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1968,13 +1978,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="10"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -1991,13 +2001,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="10"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2014,13 +2024,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="10"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2037,13 +2047,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="10"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2060,13 +2070,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2083,13 +2093,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="10"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2106,13 +2116,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="10"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2129,13 +2139,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="10"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2152,13 +2162,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2175,13 +2185,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="10"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2198,13 +2208,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="10"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2221,13 +2231,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="10"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2244,13 +2254,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="10"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2267,13 +2277,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="10"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2290,13 +2300,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="10"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2313,13 +2323,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="10"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2336,13 +2346,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="10"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2359,13 +2369,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="10"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2382,13 +2392,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2405,13 +2415,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="10"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2428,13 +2438,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2451,13 +2461,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2474,13 +2484,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="10"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -2497,13 +2507,13 @@
       <c r="U81" s="9"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="10"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -2520,13 +2530,13 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -2543,13 +2553,13 @@
       <c r="U83" s="9"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="10"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -2566,13 +2576,13 @@
       <c r="U84" s="9"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="10"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -2589,13 +2599,13 @@
       <c r="U85" s="9"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="10"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -2612,13 +2622,13 @@
       <c r="U86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="10"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -2635,13 +2645,13 @@
       <c r="U87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="10"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -2658,13 +2668,13 @@
       <c r="U88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="10"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -2681,13 +2691,13 @@
       <c r="U89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="10"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -2704,13 +2714,13 @@
       <c r="U90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="10"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -2727,13 +2737,13 @@
       <c r="U91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="10"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -2750,13 +2760,13 @@
       <c r="U92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="10"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -2773,13 +2783,13 @@
       <c r="U93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="10"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -2796,13 +2806,13 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="10"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -2819,13 +2829,13 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="10"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -2842,13 +2852,13 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="10"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -2865,13 +2875,13 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="10"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -2888,13 +2898,13 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="10"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -2911,13 +2921,13 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="10"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -2934,13 +2944,13 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="10"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -2957,13 +2967,13 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="10"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -132,9 +132,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -142,6 +139,9 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1035,13 +1035,13 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1058,13 +1058,13 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1081,13 +1081,13 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1104,13 +1104,13 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1127,13 +1127,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1150,13 +1150,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1173,13 +1173,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1196,13 +1196,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1219,13 +1219,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1242,13 +1242,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1265,13 +1265,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1288,13 +1288,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1311,13 +1311,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1334,13 +1334,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1357,13 +1357,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1380,13 +1380,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1403,13 +1403,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1426,13 +1426,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1449,13 +1449,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1472,13 +1472,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1495,13 +1495,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1518,13 +1518,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1541,13 +1541,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1564,13 +1564,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1587,13 +1587,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1610,13 +1610,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1633,13 +1633,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1656,13 +1656,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1679,13 +1679,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1702,13 +1702,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1725,13 +1725,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1748,13 +1748,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1771,13 +1771,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1794,13 +1794,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1817,13 +1817,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1840,13 +1840,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1863,13 +1863,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1886,13 +1886,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1909,13 +1909,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1932,13 +1932,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1955,13 +1955,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1978,13 +1978,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2001,13 +2001,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2024,13 +2024,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2047,13 +2047,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2070,13 +2070,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2093,13 +2093,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2116,13 +2116,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2139,13 +2139,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2162,13 +2162,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2185,13 +2185,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2208,13 +2208,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2231,13 +2231,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2254,13 +2254,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2277,13 +2277,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2300,13 +2300,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2323,13 +2323,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2346,13 +2346,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2369,13 +2369,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2392,13 +2392,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2415,13 +2415,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2438,13 +2438,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2461,13 +2461,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2484,13 +2484,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -2507,13 +2507,13 @@
       <c r="U81" s="9"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -2530,13 +2530,13 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -2553,13 +2553,13 @@
       <c r="U83" s="9"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -2576,13 +2576,13 @@
       <c r="U84" s="9"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -2599,13 +2599,13 @@
       <c r="U85" s="9"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -2622,13 +2622,13 @@
       <c r="U86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -2645,13 +2645,13 @@
       <c r="U87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -2668,13 +2668,13 @@
       <c r="U88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -2691,13 +2691,13 @@
       <c r="U89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -2714,13 +2714,13 @@
       <c r="U90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -2737,13 +2737,13 @@
       <c r="U91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -2760,13 +2760,13 @@
       <c r="U92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -2783,13 +2783,13 @@
       <c r="U93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -2806,13 +2806,13 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="13"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -2829,13 +2829,13 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -2852,13 +2852,13 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -2875,13 +2875,13 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -2898,13 +2898,13 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -2921,13 +2921,13 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -2944,13 +2944,13 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -2967,13 +2967,13 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -132,6 +132,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -139,9 +142,6 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -448,7 +448,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G15" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G21" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -980,6 +980,7 @@
         <v>52.4</v>
       </c>
       <c r="G16" s="8">
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="H16" s="9"/>
@@ -1017,6 +1018,7 @@
         <v>49.6</v>
       </c>
       <c r="G17" s="8">
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="H17" s="9"/>
@@ -1035,13 +1037,28 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="5">
+        <v>45680.0</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45686.0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>56.0</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1058,13 +1075,28 @@
       <c r="U18" s="9"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="5">
+        <v>45695.0</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45697.0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>51.3</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>11.4</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1081,13 +1113,28 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="5">
+        <v>45698.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45701.0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>50.6</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
+        <v>12.1</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1104,13 +1151,28 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="5">
+        <v>45705.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45706.0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1127,13 +1189,13 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1150,13 +1212,13 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1173,13 +1235,13 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1196,13 +1258,13 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1219,13 +1281,13 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1242,13 +1304,13 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1265,13 +1327,13 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1288,13 +1350,13 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1311,13 +1373,13 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1334,13 +1396,13 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1357,13 +1419,13 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1380,13 +1442,13 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1403,13 +1465,13 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1426,13 +1488,13 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1449,13 +1511,13 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1472,13 +1534,13 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1495,13 +1557,13 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1518,13 +1580,13 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1541,13 +1603,13 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1564,13 +1626,13 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1587,13 +1649,13 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1610,13 +1672,13 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1633,13 +1695,13 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1656,13 +1718,13 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1679,13 +1741,13 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1702,13 +1764,13 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1725,13 +1787,13 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1748,13 +1810,13 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1771,13 +1833,13 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -1794,13 +1856,13 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -1817,13 +1879,13 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -1840,13 +1902,13 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -1863,13 +1925,13 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -1886,13 +1948,13 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -1909,13 +1971,13 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -1932,13 +1994,13 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -1955,13 +2017,13 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -1978,13 +2040,13 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2001,13 +2063,13 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2024,13 +2086,13 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2047,13 +2109,13 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2070,13 +2132,13 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2093,13 +2155,13 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2116,13 +2178,13 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2139,13 +2201,13 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2162,13 +2224,13 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2185,13 +2247,13 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2208,13 +2270,13 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2231,13 +2293,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2254,13 +2316,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2277,13 +2339,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2300,13 +2362,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2323,13 +2385,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2346,13 +2408,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2369,13 +2431,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2392,13 +2454,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2415,13 +2477,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2438,13 +2500,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2461,13 +2523,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2484,13 +2546,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -2507,13 +2569,13 @@
       <c r="U81" s="9"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -2530,13 +2592,13 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -2553,13 +2615,13 @@
       <c r="U83" s="9"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="12"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -2576,13 +2638,13 @@
       <c r="U84" s="9"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -2599,13 +2661,13 @@
       <c r="U85" s="9"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -2622,13 +2684,13 @@
       <c r="U86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="12"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -2645,13 +2707,13 @@
       <c r="U87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -2668,13 +2730,13 @@
       <c r="U88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -2691,13 +2753,13 @@
       <c r="U89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="12"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -2714,13 +2776,13 @@
       <c r="U90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="12"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -2737,13 +2799,13 @@
       <c r="U91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="12"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -2760,13 +2822,13 @@
       <c r="U92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="12"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -2783,13 +2845,13 @@
       <c r="U93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -2806,13 +2868,13 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="12"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -2829,13 +2891,13 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="12"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -2852,13 +2914,13 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="12"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -2875,13 +2937,13 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="12"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -2898,13 +2960,13 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="12"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -2921,13 +2983,13 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -2944,13 +3006,13 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="12"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -2967,13 +3029,13 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="12"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>startDate</t>
   </si>
@@ -448,7 +448,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G21" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G22" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1189,13 +1189,28 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="5">
+        <v>45709.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45712.0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>IPSOS</t>
+  </si>
+  <si>
+    <t>Research Partner</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G22" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G25" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1227,13 +1230,28 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="5">
+        <v>45343.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45712.0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1250,13 +1268,28 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="5">
+        <v>45723.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45725.0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7">
+        <v>40.8</v>
+      </c>
+      <c r="F24" s="7">
+        <v>51.7</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1273,13 +1306,28 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="5">
+        <v>45727.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G25" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G27" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1344,13 +1344,28 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="5">
+        <v>45726.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>36.2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1367,13 +1382,28 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="5">
+        <v>45729.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45732.0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="F27" s="7">
+        <v>50.8</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G27" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G28" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1420,13 +1420,28 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="5">
+        <v>45733.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G28" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G29" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1458,13 +1458,28 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45739.0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G29" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G31" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1496,13 +1496,28 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1519,13 +1534,28 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>startDate</t>
   </si>
@@ -451,7 +451,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G31" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G33" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1572,13 +1572,28 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1595,13 +1610,28 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Research Partner</t>
+  </si>
+  <si>
+    <t>CBOS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G33" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G35" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1648,13 +1651,28 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1671,13 +1689,28 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Research Partner</t>
+  </si>
+  <si>
+    <t>CBOS</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G29" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G35" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1496,13 +1499,28 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="5">
+        <v>45747.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45748.0</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1519,13 +1537,28 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="5">
+        <v>45751.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1542,13 +1575,28 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1565,13 +1613,28 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1588,13 +1651,28 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1611,13 +1689,28 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="5">
+        <v>45754.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G35" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G38" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1727,13 +1727,28 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7">
+        <v>41.6</v>
+      </c>
+      <c r="F36" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1750,13 +1765,28 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="A37" s="5">
+        <v>45762.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1773,13 +1803,28 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="A38" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G38" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G39" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1841,13 +1841,28 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="A39" s="5">
+        <v>45764.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45766.0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7">
+        <v>40.2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="1"/>
+        <v>9.3</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G39" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G41" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1879,13 +1879,28 @@
       <c r="U39" s="9"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="5">
+        <v>45775.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45776.0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1902,13 +1917,28 @@
       <c r="U40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="A41" s="5">
+        <v>45775.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45776.0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="F41" s="7">
+        <v>53.3</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -1955,13 +1955,27 @@
       <c r="U41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="A42" s="5">
+        <v>45783.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>9.0</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G41" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G43" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -1974,7 +1974,8 @@
         <v>50.0</v>
       </c>
       <c r="G42" s="8">
-        <v>9.0</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -1992,13 +1993,28 @@
       <c r="U42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="A43" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>39.1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>57.7</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2015,13 +2031,27 @@
       <c r="U43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="A44" s="5">
+        <v>45784.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45785.0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G43" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G45" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2050,7 +2050,8 @@
         <v>55.0</v>
       </c>
       <c r="G44" s="8">
-        <v>0.0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2068,13 +2069,28 @@
       <c r="U44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="A45" s="5">
+        <v>45787.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="F45" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G45" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G46" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2107,13 +2107,28 @@
       <c r="U45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="5">
+        <v>45788.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="F46" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
   <si>
     <t>startDate</t>
   </si>
@@ -454,7 +454,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G46" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G51" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2145,13 +2145,28 @@
       <c r="U46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
+      <c r="A47" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7">
+        <v>36.3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8</v>
+      </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2168,13 +2183,28 @@
       <c r="U47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="A48" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2191,13 +2221,28 @@
       <c r="U48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2214,13 +2259,28 @@
       <c r="U49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="5">
+        <v>45790.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45792.0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="F50" s="7">
+        <v>56.2</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2237,13 +2297,28 @@
       <c r="U50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="5">
+        <v>45789.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45791.0</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="F51" s="7">
+        <v>48.5</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>CBOS</t>
+  </si>
+  <si>
+    <t>OGB</t>
+  </si>
+  <si>
+    <t>CAPI</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G51" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G52" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2335,13 +2341,28 @@
       <c r="U51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="5">
+        <v>45795.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45795.0</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2358,13 +2379,27 @@
       <c r="U52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="5">
+        <v>45795.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45795.0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="G53" s="8">
+        <v>14.8</v>
+      </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -2416,13 +2416,27 @@
       <c r="U53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
+      <c r="A54" s="5">
+        <v>45798.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45798.0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>8.0</v>
+      </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G52" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G55" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2398,6 +2398,7 @@
         <v>47.2</v>
       </c>
       <c r="G53" s="8">
+        <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
       <c r="H53" s="9"/>
@@ -2417,16 +2418,16 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="5">
-        <v>45798.0</v>
+        <v>45797.0</v>
       </c>
       <c r="B54" s="5">
-        <v>45798.0</v>
+        <v>45797.0</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="7">
         <v>47.0</v>
@@ -2435,7 +2436,8 @@
         <v>45.0</v>
       </c>
       <c r="G54" s="8">
-        <v>8.0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -2453,13 +2455,28 @@
       <c r="U54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="5">
+        <v>45797.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45799.0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G55" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G58" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2493,13 +2493,28 @@
       <c r="U55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
+      <c r="A56" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="G56" s="8">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2516,13 +2531,28 @@
       <c r="U56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="5">
+        <v>45799.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45801.0</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2539,13 +2569,28 @@
       <c r="U57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="7">
+        <v>43.61</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="G58" s="8">
+        <f t="shared" si="1"/>
+        <v>10.69</v>
+      </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G58" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G59" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2607,13 +2607,28 @@
       <c r="U58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
+      <c r="A59" s="5">
+        <v>45803.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45803.0</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="G59" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G59" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G60" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2645,13 +2645,28 @@
       <c r="U59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="5">
+        <v>45800.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45803.0</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="G60" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G60" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G62" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2683,13 +2683,28 @@
       <c r="U60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45803.0</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="G61" s="8">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2706,13 +2721,28 @@
       <c r="U61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45804.0</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="F62" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="G62" s="8">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G62" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G63" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2759,13 +2759,28 @@
       <c r="U62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
+      <c r="A63" s="5">
+        <v>45804.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45805.0</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="G63" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G63" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G66" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2797,13 +2797,28 @@
       <c r="U63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
+      <c r="A64" s="5">
+        <v>45804.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45805.0</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="7">
+        <v>46.1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45.8</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2820,13 +2835,28 @@
       <c r="U64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
+      <c r="A65" s="5">
+        <v>45804.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45806.0</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="7">
+        <v>46.3</v>
+      </c>
+      <c r="F65" s="7">
+        <v>47.4</v>
+      </c>
+      <c r="G65" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2843,13 +2873,28 @@
       <c r="U65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
+      <c r="A66" s="5">
+        <v>45805.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45806.0</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="F66" s="7">
+        <v>47.97</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="1"/>
+        <v>6.43</v>
+      </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -460,7 +460,7 @@
         <v>55.8</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G66" si="1">100-sum(E2:F2)</f>
+        <f t="shared" ref="G2:G68" si="1">100-sum(E2:F2)</f>
         <v>6.6</v>
       </c>
       <c r="H2" s="9"/>
@@ -2911,13 +2911,28 @@
       <c r="U66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="A67" s="5">
+        <v>45805.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45806.0</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7">
+        <v>50.63</v>
+      </c>
+      <c r="F67" s="7">
+        <v>49.37</v>
+      </c>
+      <c r="G67" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2934,13 +2949,28 @@
       <c r="U67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="A68" s="5">
+        <v>45804.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45806.0</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="7">
+        <v>48.1</v>
+      </c>
+      <c r="F68" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>

--- a/polldata_pres_R2.xlsx
+++ b/polldata_pres_R2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>startDate</t>
   </si>
@@ -144,9 +144,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -154,6 +151,9 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2987,13 +2987,27 @@
       <c r="U68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
+      <c r="A69" s="5">
+        <v>45802.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45807.0</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="7">
+        <v>47.7</v>
+      </c>
+      <c r="F69" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="G69" s="8">
+        <v>5.0</v>
+      </c>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3010,13 +3024,13 @@
       <c r="U69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3033,13 +3047,13 @@
       <c r="U70" s="9"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3056,13 +3070,13 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3079,13 +3093,13 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3102,13 +3116,13 @@
       <c r="U73" s="9"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3125,13 +3139,13 @@
       <c r="U74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3148,13 +3162,13 @@
       <c r="U75" s="9"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3171,13 +3185,13 @@
       <c r="U76" s="9"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3194,13 +3208,13 @@
       <c r="U77" s="9"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3217,13 +3231,13 @@
       <c r="U78" s="9"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3240,13 +3254,13 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3263,13 +3277,13 @@
       <c r="U80" s="9"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3286,13 +3300,13 @@
       <c r="U81" s="9"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3309,13 +3323,13 @@
       <c r="U82" s="9"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3332,13 +3346,13 @@
       <c r="U83" s="9"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3355,13 +3369,13 @@
       <c r="U84" s="9"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3378,13 +3392,13 @@
       <c r="U85" s="9"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3401,13 +3415,13 @@
       <c r="U86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -3424,13 +3438,13 @@
       <c r="U87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3447,13 +3461,13 @@
       <c r="U88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -3470,13 +3484,13 @@
       <c r="U89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3493,13 +3507,13 @@
       <c r="U90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -3516,13 +3530,13 @@
       <c r="U91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3539,13 +3553,13 @@
       <c r="U92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -3562,13 +3576,13 @@
       <c r="U93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3585,13 +3599,13 @@
       <c r="U94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="13"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -3608,13 +3622,13 @@
       <c r="U95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -3631,13 +3645,13 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -3654,13 +3668,13 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -3677,13 +3691,13 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -3700,13 +3714,13 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -3723,13 +3737,13 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -3746,13 +3760,13 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
